--- a/analysis/baseline.xlsx
+++ b/analysis/baseline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi A. Furukawa\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-06-XX fixed vs flexible regimens\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tshkf\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-10-27 fixed vs flexible regimens\analysis2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF2559E-8CEB-4704-A4E9-46E07E098575}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B16DA77-5726-4B8F-AC9A-56C15A6A8990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{F238D360-B809-4489-B45D-1994C83BDA17}"/>
   </bookViews>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="636">
   <si>
     <t>StudyID</t>
     <phoneticPr fontId="2"/>
@@ -2828,6 +2828,30 @@
   </si>
   <si>
     <t>Baseline_mean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Golden2002a (29060/448) CR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Golden2002b (29060/449) CR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Higuchi2011 (PCR112810, NCT00866294) CR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jefferson2000 (29060/785) CR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trivedi2004 (29060/810) CR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rapaport2009 (BRL-29060/874) (NCT00067444) CR</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3261,6 +3285,9 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
+          <cell r="A2" t="str">
+            <v>Yes</v>
+          </cell>
           <cell r="K2" t="str">
             <v>agomelatine</v>
           </cell>
@@ -3716,14 +3743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721DC1D0-035B-4A1F-8BAA-4FB917992D36}">
   <dimension ref="A1:D1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A800" workbookViewId="0">
+      <selection activeCell="A831" sqref="A831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="38" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="57" customWidth="1"/>
     <col min="4" max="4" width="6.08203125" style="56" customWidth="1"/>
   </cols>
@@ -14832,7 +14859,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="3" t="s">
-        <v>356</v>
+        <v>630</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>569</v>
@@ -14874,7 +14901,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="3" t="s">
-        <v>357</v>
+        <v>631</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>569</v>
@@ -15182,7 +15209,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="3" t="s">
-        <v>366</v>
+        <v>633</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>591</v>
@@ -15238,7 +15265,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="3" t="s">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>591</v>
@@ -15336,7 +15363,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="3" t="s">
-        <v>371</v>
+        <v>635</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>591</v>
@@ -15434,7 +15461,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="3" t="s">
-        <v>374</v>
+        <v>632</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>569</v>
